--- a/single_digit/Results/SVM&GL_1vs7.xlsx
+++ b/single_digit/Results/SVM&GL_1vs7.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Documents\GitHub\Group_Learning\single_digit\Results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88E7E780-213C-4106-A833-011DEC9C5E7E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F59CC68E-A613-467F-9D8A-CAB97732715C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{60F57292-22A5-4A33-BAC1-D93E5267D72A}"/>
   </bookViews>
@@ -17,6 +17,17 @@
     <sheet name="GL_MV" sheetId="2" r:id="rId2"/>
     <sheet name="GL_adaptive" sheetId="3" r:id="rId3"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId4"/>
+    <externalReference r:id="rId5"/>
+  </externalReferences>
+  <definedNames>
+    <definedName name="_xlchart.v1.0" hidden="1">[1]GL_adaptive!$A$11:$J$11</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">(GL_MV!$B$8,GL_MV!$F$8,GL_MV!$H$8,GL_MV!$N$8)</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">(GL_adaptive!$B$8,GL_adaptive!$F$8,GL_adaptive!$H$8,GL_adaptive!$N$8)</definedName>
+    <definedName name="_xlchart.v1.3" hidden="1">SVM!$E$11:$H$11</definedName>
+    <definedName name="_xlchart.v1.4" hidden="1">SVM!$E$8:$H$8</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -151,6 +162,4676 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-TW"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>SVM+GL(MV)</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent6"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>SVM!$E$11:$H$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>25</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>(GL_MV!$B$9,GL_MV!$F$9,GL_MV!$H$9,GL_MV!$N$9)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.18900000000000006</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.0799999999999947E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9.8000000000000087E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.4200000000000017E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-9347-44C0-AF76-B66A0E97AAD3}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>SVM+GL(Adaptive)</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent5"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>SVM!$E$11:$H$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>25</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>(GL_adaptive!$B$9,GL_adaptive!$F$9,GL_adaptive!$H$9,GL_adaptive!$N$9)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.13739999999999986</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.11340000000000006</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.10160000000000002</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.5000000000000151E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-9347-44C0-AF76-B66A0E97AAD3}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="517260784"/>
+        <c:axId val="517260128"/>
+      </c:barChart>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>SVM</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>[1]GL_adaptive!$A$11:$J$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>55</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>SVM!$J$8:$M$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>6.5800000000000081E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.5800000000000081E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6.5800000000000081E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.5800000000000081E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-9347-44C0-AF76-B66A0E97AAD3}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="517260784"/>
+        <c:axId val="517260128"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="517260784"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-TW" sz="1400" baseline="0">
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  </a:rPr>
+                  <a:t>Window size</a:t>
+                </a:r>
+                <a:endParaRPr lang="zh-TW" altLang="en-US" sz="1400">
+                  <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                </a:endParaRPr>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="zh-TW"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-TW"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="517260128"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="517260128"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-TW" sz="1400">
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  </a:rPr>
+                  <a:t>Test</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-TW" sz="1400" baseline="0">
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  </a:rPr>
+                  <a:t> error</a:t>
+                </a:r>
+                <a:endParaRPr lang="zh-TW" altLang="en-US" sz="1400">
+                  <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                </a:endParaRPr>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="zh-TW"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-TW"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="517260784"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-TW"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-TW"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-TW"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>SVM+GL(MV)</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent6"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>[2]GL_adaptive!$A$11:$D$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>25</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>(GL_MV!$A$9,GL_MV!$E$9,GL_MV!$G$9,GL_MV!$M$9)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1.9999999999999907E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-BE40-4E22-A73D-AB43EA596A9C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>SVM+GL(Adaptive)</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent5"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>[2]GL_adaptive!$A$11:$D$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>25</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>(GL_adaptive!$A$9,GL_adaptive!$E$9,GL_adaptive!$G$9,GL_adaptive!$M$9)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1.9999999999999907E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-BE40-4E22-A73D-AB43EA596A9C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="517260784"/>
+        <c:axId val="517260128"/>
+      </c:barChart>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>SVM</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>SVM!$E$11:$H$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>25</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>SVM!$J$9:$M$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-BE40-4E22-A73D-AB43EA596A9C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="517260784"/>
+        <c:axId val="517260128"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="517260784"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-TW" sz="1400">
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  </a:rPr>
+                  <a:t>Group</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-TW" sz="1400" baseline="0">
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  </a:rPr>
+                  <a:t> size</a:t>
+                </a:r>
+                <a:endParaRPr lang="zh-TW" altLang="en-US" sz="1400">
+                  <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                </a:endParaRPr>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="zh-TW"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-TW"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="517260128"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="517260128"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-TW" sz="1400">
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  </a:rPr>
+                  <a:t>Training</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-TW" sz="1400" baseline="0">
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  </a:rPr>
+                  <a:t> error</a:t>
+                </a:r>
+                <a:endParaRPr lang="zh-TW" altLang="en-US" sz="1400">
+                  <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                </a:endParaRPr>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="zh-TW"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-TW"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="517260784"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-TW"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-TW"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-TW"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>SVM+GL(MV)</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent6"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>SVM!$E$11:$H$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>25</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>(GL_MV!$B$8,GL_MV!$F$8,GL_MV!$H$8,GL_MV!$N$8)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.81099999999999994</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.95920000000000005</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.90199999999999991</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.95579999999999998</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-E569-4455-AFA6-018CFA06C7EF}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>SVM+GL(Adaptive)</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent5"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>SVM!$E$11:$H$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>25</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>(GL_adaptive!$B$8,GL_adaptive!$F$8,GL_adaptive!$H$8,GL_adaptive!$N$8)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.86260000000000014</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.88659999999999994</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.89839999999999998</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.95499999999999985</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-E569-4455-AFA6-018CFA06C7EF}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="517260784"/>
+        <c:axId val="517260128"/>
+      </c:barChart>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>SVM</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>[1]GL_adaptive!$A$11:$J$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>55</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>SVM!$E$8:$H$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.93419999999999992</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.93419999999999992</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.93419999999999992</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.93419999999999992</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-E569-4455-AFA6-018CFA06C7EF}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="517260784"/>
+        <c:axId val="517260128"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="517260784"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-TW" sz="1400" baseline="0">
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  </a:rPr>
+                  <a:t>Window size</a:t>
+                </a:r>
+                <a:endParaRPr lang="zh-TW" altLang="en-US" sz="1400">
+                  <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                </a:endParaRPr>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="zh-TW"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-TW"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="517260128"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="517260128"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-TW" sz="1400">
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  </a:rPr>
+                  <a:t>Test</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="zh-TW" altLang="en-US"/>
+                  <a:t> </a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-TW" sz="1400">
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  </a:rPr>
+                  <a:t>accuracy</a:t>
+                </a:r>
+                <a:endParaRPr lang="zh-TW" altLang="en-US" sz="1400">
+                  <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                </a:endParaRPr>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="zh-TW"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-TW"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="517260784"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-TW"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-TW"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-TW"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>SVM+GL(MV)</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent6"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>[2]GL_adaptive!$A$11:$D$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>25</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>(GL_MV!$A$8,GL_MV!$E$8,GL_MV!$G$8,GL_MV!$M$8)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.98000000000000009</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-D947-4684-8E6D-26D11823966D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>SVM+GL(Adaptive)</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent5"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>[2]GL_adaptive!$A$11:$D$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>25</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>(GL_adaptive!$A$8,GL_adaptive!$E$8,GL_adaptive!$G$8,GL_adaptive!$M$8)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.98000000000000009</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-D947-4684-8E6D-26D11823966D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="517260784"/>
+        <c:axId val="517260128"/>
+      </c:barChart>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>SVM</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>SVM!$E$11:$H$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>25</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>SVM!$E$9:$H$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-D947-4684-8E6D-26D11823966D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="517260784"/>
+        <c:axId val="517260128"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="517260784"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-TW" sz="1400">
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  </a:rPr>
+                  <a:t>Group</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-TW" sz="1400" baseline="0">
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  </a:rPr>
+                  <a:t> size</a:t>
+                </a:r>
+                <a:endParaRPr lang="zh-TW" altLang="en-US" sz="1400">
+                  <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                </a:endParaRPr>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="zh-TW"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-TW"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="517260128"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="517260128"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-TW" sz="1400">
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  </a:rPr>
+                  <a:t>Training</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-TW" sz="1400" baseline="0">
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  </a:rPr>
+                  <a:t> a</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-TW" sz="1400">
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  </a:rPr>
+                  <a:t>ccuracy</a:t>
+                </a:r>
+                <a:endParaRPr lang="zh-TW" altLang="en-US" sz="1400">
+                  <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                </a:endParaRPr>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="zh-TW"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-TW"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="517260784"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-TW"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-TW"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="13">
+  <a:schemeClr val="accent6"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent4"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="13">
+  <a:schemeClr val="accent6"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent4"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="13">
+  <a:schemeClr val="accent6"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent4"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="13">
+  <a:schemeClr val="accent6"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent4"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>99060</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>506730</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>167640</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="圖表 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C810C198-B3F6-47F2-81C7-0B5CE9044005}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>45720</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>392430</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="圖表 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3523F1B7-EF54-4AE3-AEE7-47A6FD3EFAC4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>274320</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>514350</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>144780</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="圖表 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7B91BC30-D4FA-4E6E-AF7B-BCFCB385C7F5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>91440</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>331470</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>68580</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="圖表 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{029DAB92-E38E-4058-9C56-CC4F6A7D2500}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="SVM"/>
+      <sheetName val="GL_MV"/>
+      <sheetName val="GL_adaptive"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2">
+        <row r="11">
+          <cell r="A11">
+            <v>10</v>
+          </cell>
+          <cell r="B11">
+            <v>15</v>
+          </cell>
+          <cell r="C11">
+            <v>20</v>
+          </cell>
+          <cell r="D11">
+            <v>25</v>
+          </cell>
+          <cell r="E11">
+            <v>30</v>
+          </cell>
+          <cell r="F11">
+            <v>35</v>
+          </cell>
+          <cell r="G11">
+            <v>40</v>
+          </cell>
+          <cell r="H11">
+            <v>45</v>
+          </cell>
+          <cell r="I11">
+            <v>50</v>
+          </cell>
+          <cell r="J11">
+            <v>55</v>
+          </cell>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="SVM"/>
+      <sheetName val="GL_MV"/>
+      <sheetName val="GL_adaptive"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2">
+        <row r="11">
+          <cell r="A11">
+            <v>10</v>
+          </cell>
+          <cell r="B11">
+            <v>15</v>
+          </cell>
+          <cell r="C11">
+            <v>20</v>
+          </cell>
+          <cell r="D11">
+            <v>25</v>
+          </cell>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -450,20 +5131,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69D86EA0-3C88-40C3-A1C5-042D836277E7}">
-  <dimension ref="A1:B12"/>
+  <dimension ref="A1:M12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="P9" sqref="P9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:13">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:13">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -471,7 +5152,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:13">
       <c r="A3">
         <v>1</v>
       </c>
@@ -479,7 +5160,7 @@
         <v>0.94399999999999995</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:13">
       <c r="A4">
         <v>1</v>
       </c>
@@ -487,7 +5168,7 @@
         <v>0.93799999999999994</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:13">
       <c r="A5">
         <v>1</v>
       </c>
@@ -495,7 +5176,7 @@
         <v>0.873</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:13">
       <c r="A6">
         <v>1</v>
       </c>
@@ -503,7 +5184,7 @@
         <v>0.94</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7" spans="1:13">
       <c r="A7">
         <v>1</v>
       </c>
@@ -511,7 +5192,7 @@
         <v>0.97599999999999998</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8" spans="1:13">
       <c r="A8">
         <f>AVERAGE(A3:A7)</f>
         <v>1</v>
@@ -520,8 +5201,80 @@
         <f>AVERAGE(B3:B7)</f>
         <v>0.93419999999999992</v>
       </c>
+      <c r="E8">
+        <v>0.93419999999999992</v>
+      </c>
+      <c r="F8">
+        <v>0.93419999999999992</v>
+      </c>
+      <c r="G8">
+        <v>0.93419999999999992</v>
+      </c>
+      <c r="H8">
+        <v>0.93419999999999992</v>
+      </c>
+      <c r="J8">
+        <f>1-E8</f>
+        <v>6.5800000000000081E-2</v>
+      </c>
+      <c r="K8">
+        <f t="shared" ref="K8:M9" si="0">1-F8</f>
+        <v>6.5800000000000081E-2</v>
+      </c>
+      <c r="L8">
+        <f t="shared" si="0"/>
+        <v>6.5800000000000081E-2</v>
+      </c>
+      <c r="M8">
+        <f t="shared" si="0"/>
+        <v>6.5800000000000081E-2</v>
+      </c>
     </row>
-    <row r="12" spans="1:2">
+    <row r="9" spans="1:13">
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>1</v>
+      </c>
+      <c r="H9">
+        <v>1</v>
+      </c>
+      <c r="J9">
+        <f>1-E9</f>
+        <v>0</v>
+      </c>
+      <c r="K9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
+      <c r="E11">
+        <v>10</v>
+      </c>
+      <c r="F11">
+        <v>15</v>
+      </c>
+      <c r="G11">
+        <v>20</v>
+      </c>
+      <c r="H11">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
       <c r="A12" t="s">
         <v>12</v>
       </c>
@@ -535,10 +5288,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A45602E2-DFDB-4DC2-9A73-7D0DAA27F788}">
-  <dimension ref="A1:R8"/>
+  <dimension ref="A1:R9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+      <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2"/>
@@ -980,6 +5733,80 @@
       <c r="R8">
         <f t="shared" si="2"/>
         <v>0.96400000000000008</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18">
+      <c r="A9">
+        <f>1-A8</f>
+        <v>1.9999999999999907E-2</v>
+      </c>
+      <c r="B9">
+        <f t="shared" ref="B9:R9" si="3">1-B8</f>
+        <v>0.18900000000000006</v>
+      </c>
+      <c r="C9">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <f t="shared" si="3"/>
+        <v>6.1400000000000121E-2</v>
+      </c>
+      <c r="E9">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <f t="shared" si="3"/>
+        <v>4.0799999999999947E-2</v>
+      </c>
+      <c r="G9">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <f t="shared" si="3"/>
+        <v>9.8000000000000087E-2</v>
+      </c>
+      <c r="I9">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <f t="shared" si="3"/>
+        <v>0.11619999999999986</v>
+      </c>
+      <c r="K9">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="L9">
+        <f t="shared" si="3"/>
+        <v>6.9599999999999995E-2</v>
+      </c>
+      <c r="M9">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="N9">
+        <f t="shared" si="3"/>
+        <v>4.4200000000000017E-2</v>
+      </c>
+      <c r="O9">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="P9">
+        <f t="shared" si="3"/>
+        <v>7.6200000000000045E-2</v>
+      </c>
+      <c r="Q9">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="R9">
+        <f t="shared" si="3"/>
+        <v>3.5999999999999921E-2</v>
       </c>
     </row>
   </sheetData>
@@ -991,10 +5818,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E6E7B3FA-A786-498B-86FF-4C69BB3470EF}">
-  <dimension ref="A1:R8"/>
+  <dimension ref="A1:R9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="U7" sqref="U7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2"/>
@@ -1438,8 +6265,84 @@
         <v>0.97019999999999995</v>
       </c>
     </row>
+    <row r="9" spans="1:18">
+      <c r="A9">
+        <f>1-A8</f>
+        <v>1.9999999999999907E-2</v>
+      </c>
+      <c r="B9">
+        <f t="shared" ref="B9:R9" si="1">1-B8</f>
+        <v>0.13739999999999986</v>
+      </c>
+      <c r="C9">
+        <f t="shared" si="1"/>
+        <v>1.9999999999999907E-2</v>
+      </c>
+      <c r="D9">
+        <f t="shared" si="1"/>
+        <v>0.10060000000000002</v>
+      </c>
+      <c r="E9">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <f t="shared" si="1"/>
+        <v>0.11340000000000006</v>
+      </c>
+      <c r="G9">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <f t="shared" si="1"/>
+        <v>0.10160000000000002</v>
+      </c>
+      <c r="I9">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <f t="shared" si="1"/>
+        <v>2.2199999999999998E-2</v>
+      </c>
+      <c r="K9">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L9">
+        <f t="shared" si="1"/>
+        <v>4.4400000000000106E-2</v>
+      </c>
+      <c r="M9">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N9">
+        <f t="shared" si="1"/>
+        <v>4.5000000000000151E-2</v>
+      </c>
+      <c r="O9">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="P9">
+        <f t="shared" si="1"/>
+        <v>4.0000000000000036E-2</v>
+      </c>
+      <c r="Q9">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="R9">
+        <f t="shared" si="1"/>
+        <v>2.9800000000000049E-2</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>